--- a/video-poster-main/ai_shorts_psychology_with_separate_tags.xlsx
+++ b/video-poster-main/ai_shorts_psychology_with_separate_tags.xlsx
@@ -22862,7 +22862,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>24</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
